--- a/log/PSOELM_extracted_result/PSOELM_slp60_result/PSOELM_slp60_result.xlsx
+++ b/log/PSOELM_extracted_result/PSOELM_slp60_result/PSOELM_slp60_result.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\thesis\PSOELM_slp60_result\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fennia\Documents\MATLAB\thesis\log\PSOELM_extracted_result\PSOELM_slp60_result\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="105">
   <si>
     <t>Experiment</t>
   </si>
@@ -340,6 +340,9 @@
   </si>
   <si>
     <t>1 2 4 12 13</t>
+  </si>
+  <si>
+    <t>BEST EXPERIMENT</t>
   </si>
 </sst>
 </file>
@@ -706,7 +709,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -812,6 +815,9 @@
       </c>
       <c r="F5" t="s">
         <v>9</v>
+      </c>
+      <c r="G5" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1549,7 +1555,7 @@
         <v>45</v>
       </c>
       <c r="G15" t="s">
-        <v>31</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1987,7 +1993,7 @@
         <v>62</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -2665,7 +2671,7 @@
         <v>94</v>
       </c>
       <c r="G17" t="s">
-        <v>31</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
